--- a/Resultados 1/Erros.xlsx
+++ b/Resultados 1/Erros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Proj2CalculoNumerico\Resultados 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780D3AD5-A248-4A7A-9779-379BBF74CC06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811D6813-54E4-4947-ABFA-A61C8A9B6B81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EBD3A14D-9EC2-4DD7-B39E-26C274F54405}"/>
   </bookViews>
@@ -80,7 +80,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -88,6 +88,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -120,6 +121,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Matlab</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -599,7 +625,566 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Octave</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$2:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$C$2:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.96153999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64622999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70701000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43836000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43269000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61695</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24736</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0451999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9157</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55678000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6634000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0701000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.1948999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1076000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.394</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2243000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.190999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.5791000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59.822000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.602</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>123.62</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>257.20999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>75.816999999999993</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>538.17999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>158.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1131.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>333.95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2388.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>705.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5060.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1496.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10800</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3259.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>22649</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8673.7000000000007</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.00E+00">
+                  <c:v>825320</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22103</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00E+00">
+                  <c:v>197150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD0A-43DA-9BE7-A4CA839182B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="513970688"/>
+        <c:axId val="525144496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="513970688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525144496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="525144496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="513970688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1155,20 +1740,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1188,6 +2289,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D9AA744-3BCA-4AFD-9550-2414BEAD9053}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1493,15 +2630,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D38D6E-7529-4615-A15C-BC63AD5793EE}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:BD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1509,328 +2646,580 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0.96153846153846201</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0.96153999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3">
         <v>0.64622926685915105</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0.64622999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4">
         <v>0.70701357466063297</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0.70701000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0.43835712189475401</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0.43836000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6">
         <v>0.43269230769230799</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0.43269000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7">
         <v>0.61694792367603801</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0.61695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8">
         <v>0.24735860655931499</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0.24736</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9">
         <v>1.0451765018718799</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1.0451999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10">
         <v>0.30029790967336001</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>0.30030000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11">
         <v>1.9156588027847801</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>1.9157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12">
         <v>0.55677508944832399</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>0.55678000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13">
         <v>3.6633928054177298</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>3.6634000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14">
         <v>1.0701050326156401</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>1.0701000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15">
         <v>7.1948811072357399</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>7.1948999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16">
         <v>2.1075611333528999</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>2.1076000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17">
         <v>14.3938512850142</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>14.394</v>
+      </c>
+      <c r="Q17">
+        <v>0.96153999999999995</v>
+      </c>
+      <c r="R17">
+        <v>0.64622999999999997</v>
+      </c>
+      <c r="S17">
+        <v>0.70701000000000003</v>
+      </c>
+      <c r="T17">
+        <v>0.43836000000000003</v>
+      </c>
+      <c r="U17">
+        <v>0.43269000000000002</v>
+      </c>
+      <c r="V17">
+        <v>0.61695</v>
+      </c>
+      <c r="W17">
+        <v>0.24736</v>
+      </c>
+      <c r="X17">
+        <v>1.0451999999999999</v>
+      </c>
+      <c r="Y17">
+        <v>0.30030000000000001</v>
+      </c>
+      <c r="Z17">
+        <v>1.9157</v>
+      </c>
+      <c r="AA17">
+        <v>0.55678000000000005</v>
+      </c>
+      <c r="AB17">
+        <v>3.6634000000000002</v>
+      </c>
+      <c r="AC17">
+        <v>1.0701000000000001</v>
+      </c>
+      <c r="AD17">
+        <v>7.1948999999999996</v>
+      </c>
+      <c r="AE17">
+        <v>2.1076000000000001</v>
+      </c>
+      <c r="AF17">
+        <v>14.394</v>
+      </c>
+      <c r="AG17">
+        <v>4.2243000000000004</v>
+      </c>
+      <c r="AH17">
+        <v>29.190999999999999</v>
+      </c>
+      <c r="AI17">
+        <v>8.5791000000000004</v>
+      </c>
+      <c r="AJ17">
+        <v>59.822000000000003</v>
+      </c>
+      <c r="AK17">
+        <v>17.602</v>
+      </c>
+      <c r="AL17">
+        <v>123.62</v>
+      </c>
+      <c r="AM17">
+        <v>36.409999999999997</v>
+      </c>
+      <c r="AN17">
+        <v>257.20999999999998</v>
+      </c>
+      <c r="AO17">
+        <v>75.816999999999993</v>
+      </c>
+      <c r="AP17">
+        <v>538.17999999999995</v>
+      </c>
+      <c r="AQ17">
+        <v>158.75</v>
+      </c>
+      <c r="AR17">
+        <v>1131.4000000000001</v>
+      </c>
+      <c r="AS17">
+        <v>333.95</v>
+      </c>
+      <c r="AT17">
+        <v>2388.1</v>
+      </c>
+      <c r="AU17">
+        <v>705.31</v>
+      </c>
+      <c r="AV17">
+        <v>5060.6000000000004</v>
+      </c>
+      <c r="AW17">
+        <v>1496.9</v>
+      </c>
+      <c r="AX17">
+        <v>10800</v>
+      </c>
+      <c r="AY17">
+        <v>3259.7</v>
+      </c>
+      <c r="AZ17">
+        <v>22649</v>
+      </c>
+      <c r="BA17">
+        <v>8673.7000000000007</v>
+      </c>
+      <c r="BB17" s="3">
+        <v>825320</v>
+      </c>
+      <c r="BC17">
+        <v>22103</v>
+      </c>
+      <c r="BD17" s="3">
+        <v>197150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18">
         <v>4.2242868225715</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>4.2243000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19">
         <v>29.190575950622499</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>29.190999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20">
         <v>8.5790877180243008</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>8.5791000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21">
         <v>59.822308710635099</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>59.822000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22">
         <v>17.602022114460599</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>17.602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23">
         <v>123.624255153405</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>123.62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24">
         <v>36.410059990873101</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>36.409999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25">
         <v>257.21291232744699</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>257.20999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26">
         <v>75.816981399163595</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>75.816999999999993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27">
         <v>538.18058355014398</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>538.17999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28">
         <v>158.74838969509801</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>158.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29">
         <v>1131.42047612079</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>1131.4000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30">
         <v>333.94568514285601</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>333.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31">
         <v>2388.28097313444</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>2388.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32">
         <v>705.29646373625803</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>705.31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33">
         <v>5059.0328138735504</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>5060.6000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34">
         <v>1494.7335924057099</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>1496.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35">
         <v>10749.2574906724</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36">
         <v>3177.33541122015</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>3259.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37">
         <v>22901.227007329599</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>22649</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38">
         <v>6771.90186848957</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>8673.7000000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39">
         <v>48907.210215569699</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="3">
+        <v>825320</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40">
         <v>14467.1794660903</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>22103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41">
         <v>104667.694720495</v>
       </c>
+      <c r="C41" s="3">
+        <v>197150</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B41">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C41">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
